--- a/Code/Results/Cases/Case_5_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05204176671155</v>
+        <v>19.62974171293406</v>
       </c>
       <c r="C2">
-        <v>14.43493759990677</v>
+        <v>11.90515418833878</v>
       </c>
       <c r="D2">
-        <v>5.007908716678723</v>
+        <v>5.273071938883573</v>
       </c>
       <c r="E2">
-        <v>5.365591054139289</v>
+        <v>10.73751006893334</v>
       </c>
       <c r="F2">
-        <v>64.94302212652198</v>
+        <v>58.40536167705619</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.580173714488814</v>
+        <v>10.20398338144547</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.58184663465606</v>
+        <v>19.38323440442752</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49544587619371</v>
+        <v>19.39771230712965</v>
       </c>
       <c r="C3">
-        <v>13.33644647116447</v>
+        <v>11.71739948170023</v>
       </c>
       <c r="D3">
-        <v>4.691868461263628</v>
+        <v>5.216086276269363</v>
       </c>
       <c r="E3">
-        <v>5.433596029146107</v>
+        <v>10.77371095808514</v>
       </c>
       <c r="F3">
-        <v>61.55422909592239</v>
+        <v>57.47542236806399</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530747194921645</v>
+        <v>10.20837293539281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.01197877834778</v>
+        <v>19.39223646570822</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.55152594096376</v>
+        <v>19.26257364858362</v>
       </c>
       <c r="C4">
-        <v>12.6360157025525</v>
+        <v>11.60724474836054</v>
       </c>
       <c r="D4">
-        <v>4.491995796370587</v>
+        <v>5.18142274897335</v>
       </c>
       <c r="E4">
-        <v>5.477438508016889</v>
+        <v>10.79727827854841</v>
       </c>
       <c r="F4">
-        <v>59.44055900686568</v>
+        <v>56.90513245647951</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.502977862847247</v>
+        <v>10.21193096383938</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.66861053197246</v>
+        <v>19.40398803934888</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19231400525163</v>
+        <v>19.2094193426264</v>
       </c>
       <c r="C5">
-        <v>12.34385634667224</v>
+        <v>11.56371910496066</v>
       </c>
       <c r="D5">
-        <v>4.409048878731245</v>
+        <v>5.167386590411171</v>
       </c>
       <c r="E5">
-        <v>5.495836316155852</v>
+        <v>10.80722020616806</v>
       </c>
       <c r="F5">
-        <v>58.57118036733237</v>
+        <v>56.67312497238476</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.492274625303357</v>
+        <v>10.21359756955098</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.5304177268576</v>
+        <v>19.41033945220041</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13235454033682</v>
+        <v>19.20071085665105</v>
       </c>
       <c r="C6">
-        <v>12.29493206953806</v>
+        <v>11.55657613311798</v>
       </c>
       <c r="D6">
-        <v>4.395184515812881</v>
+        <v>5.16506151776362</v>
       </c>
       <c r="E6">
-        <v>5.498923561127249</v>
+        <v>10.80889150686918</v>
       </c>
       <c r="F6">
-        <v>58.4263461640098</v>
+        <v>56.63463015741048</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.490533400604663</v>
+        <v>10.21388738643805</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.50757874411644</v>
+        <v>19.41148837811568</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.54670256177549</v>
+        <v>19.2618489411463</v>
       </c>
       <c r="C7">
-        <v>12.63210301707746</v>
+        <v>11.60665213131108</v>
       </c>
       <c r="D7">
-        <v>4.490883239577951</v>
+        <v>5.181233080257132</v>
       </c>
       <c r="E7">
-        <v>5.477684465903875</v>
+        <v>10.79741098856525</v>
       </c>
       <c r="F7">
-        <v>59.42886634753468</v>
+        <v>56.90200165818125</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.502831078057823</v>
+        <v>10.21195256331952</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.66673966009654</v>
+        <v>19.40406737413605</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52297031183636</v>
+        <v>19.54826225844387</v>
       </c>
       <c r="C8">
-        <v>14.06142893620387</v>
+        <v>11.83939763723883</v>
       </c>
       <c r="D8">
-        <v>4.900121679948071</v>
+        <v>5.253360266723776</v>
       </c>
       <c r="E8">
-        <v>5.388610193665252</v>
+        <v>10.74971474115319</v>
       </c>
       <c r="F8">
-        <v>63.7814799267525</v>
+        <v>58.08470302662855</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.562573929462853</v>
+        <v>10.20531765310042</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.3840439195858</v>
+        <v>19.38504520643841</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2115103435864</v>
+        <v>20.16463181465972</v>
       </c>
       <c r="C9">
-        <v>16.66998270978344</v>
+        <v>12.33308491229806</v>
       </c>
       <c r="D9">
-        <v>5.658815001445167</v>
+        <v>5.397043490282215</v>
       </c>
       <c r="E9">
-        <v>5.230168558935464</v>
+        <v>10.66676207137632</v>
       </c>
       <c r="F9">
-        <v>72.05715654183851</v>
+        <v>60.40010644014476</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.701975575371641</v>
+        <v>10.19916581532182</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.31035086413653</v>
+        <v>19.39720184337372</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.77059521429755</v>
+        <v>20.64598627138486</v>
       </c>
       <c r="C10">
-        <v>18.48820280635077</v>
+        <v>12.71381497132894</v>
       </c>
       <c r="D10">
-        <v>6.194232368174752</v>
+        <v>5.503501399746922</v>
       </c>
       <c r="E10">
-        <v>5.123163147213491</v>
+        <v>10.61219537240913</v>
       </c>
       <c r="F10">
-        <v>78.00063067699402</v>
+        <v>62.08648415599771</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.820810033926247</v>
+        <v>10.19884609355905</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.92790099024419</v>
+        <v>19.43631965603128</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90891965220206</v>
+        <v>20.87008020179767</v>
       </c>
       <c r="C11">
-        <v>19.29987640530946</v>
+        <v>12.88992159134436</v>
       </c>
       <c r="D11">
-        <v>6.434529799957792</v>
+        <v>5.552022358176979</v>
       </c>
       <c r="E11">
-        <v>5.076402693615067</v>
+        <v>10.58874159962451</v>
       </c>
       <c r="F11">
-        <v>80.68561539554292</v>
+        <v>62.84791786180845</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.87920735811817</v>
+        <v>10.19961630304813</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.64580737111608</v>
+        <v>19.46065497148264</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.33699583457214</v>
+        <v>20.95558421132884</v>
       </c>
       <c r="C12">
-        <v>19.60563220529735</v>
+        <v>12.95694422062285</v>
       </c>
       <c r="D12">
-        <v>6.525218275402309</v>
+        <v>5.570400427781046</v>
       </c>
       <c r="E12">
-        <v>5.058959889679334</v>
+        <v>10.58005594899956</v>
       </c>
       <c r="F12">
-        <v>81.70102912862221</v>
+        <v>63.13522761613369</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.90202349367269</v>
+        <v>10.20003986407435</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.91557419030791</v>
+        <v>19.47080745234948</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.2449212914814</v>
+        <v>20.93714219377313</v>
       </c>
       <c r="C13">
-        <v>19.53984254562403</v>
+        <v>12.94249611465856</v>
       </c>
       <c r="D13">
-        <v>6.505697538934487</v>
+        <v>5.566442338025587</v>
       </c>
       <c r="E13">
-        <v>5.062704947345453</v>
+        <v>10.58191786851923</v>
       </c>
       <c r="F13">
-        <v>81.48237443660966</v>
+        <v>63.07339929687659</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.897076983039751</v>
+        <v>10.19994277294549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.85755917179113</v>
+        <v>19.46857931473991</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94419276832743</v>
+        <v>20.87710227862295</v>
       </c>
       <c r="C14">
-        <v>19.32505935805505</v>
+        <v>12.8954293439448</v>
       </c>
       <c r="D14">
-        <v>6.441995879171439</v>
+        <v>5.553534300203652</v>
       </c>
       <c r="E14">
-        <v>5.074962435198649</v>
+        <v>10.58802310816461</v>
       </c>
       <c r="F14">
-        <v>80.76917142165662</v>
+        <v>62.87157678723252</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.881069876749867</v>
+        <v>10.19964850496848</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.6680399744425</v>
+        <v>19.46147146159649</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75962378146027</v>
+        <v>20.84040729711613</v>
       </c>
       <c r="C15">
-        <v>19.19330952063052</v>
+        <v>12.86664074978993</v>
       </c>
       <c r="D15">
-        <v>6.402942274210613</v>
+        <v>5.545628036081151</v>
       </c>
       <c r="E15">
-        <v>5.08250456905687</v>
+        <v>10.59178820925142</v>
       </c>
       <c r="F15">
-        <v>80.33218839760046</v>
+        <v>62.74781467270226</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.871359107838557</v>
+        <v>10.1994854409809</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.55169808222766</v>
+        <v>19.45723963413024</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.69574246759165</v>
+        <v>20.6314364137041</v>
       </c>
       <c r="C16">
-        <v>18.4348968722527</v>
+        <v>12.70235736237117</v>
       </c>
       <c r="D16">
-        <v>6.17847571651716</v>
+        <v>5.500331529110782</v>
       </c>
       <c r="E16">
-        <v>5.126256692912642</v>
+        <v>10.61375558635296</v>
       </c>
       <c r="F16">
-        <v>77.82489044763275</v>
+        <v>62.03658987126207</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.817087317229496</v>
+        <v>10.19881420395944</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.88066315413274</v>
+        <v>19.43486064130136</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03694605907808</v>
+        <v>20.50448612400438</v>
       </c>
       <c r="C17">
-        <v>17.96607811609042</v>
+        <v>12.60226018931331</v>
       </c>
       <c r="D17">
-        <v>6.040040663159755</v>
+        <v>5.4725608665301</v>
       </c>
       <c r="E17">
-        <v>5.153580563727929</v>
+        <v>10.62758170934053</v>
       </c>
       <c r="F17">
-        <v>76.28278468724702</v>
+        <v>61.59866427041031</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.784956025910417</v>
+        <v>10.19863711269799</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.46473404309661</v>
+        <v>19.42280503746831</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65554199586627</v>
+        <v>20.4319554509717</v>
       </c>
       <c r="C18">
-        <v>17.69492900398549</v>
+        <v>12.54496581472105</v>
       </c>
       <c r="D18">
-        <v>5.960097289812789</v>
+        <v>5.456597189551628</v>
       </c>
       <c r="E18">
-        <v>5.169477703205224</v>
+        <v>10.63566303916464</v>
       </c>
       <c r="F18">
-        <v>75.39393810307578</v>
+        <v>61.34625577150141</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.766877915328112</v>
+        <v>10.1986214277126</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.22378139118404</v>
+        <v>19.41648685714537</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52595908143113</v>
+        <v>20.40748439909514</v>
       </c>
       <c r="C19">
-        <v>17.60284876017025</v>
+        <v>12.52561740052087</v>
       </c>
       <c r="D19">
-        <v>5.932970641021237</v>
+        <v>5.451194032742896</v>
       </c>
       <c r="E19">
-        <v>5.174891638910102</v>
+        <v>10.63842141136868</v>
       </c>
       <c r="F19">
-        <v>75.09263437991029</v>
+        <v>61.26071083113153</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760824026292488</v>
+        <v>10.198630910023</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.14188988598569</v>
+        <v>19.41445348995023</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10732811567279</v>
+        <v>20.51795038483312</v>
       </c>
       <c r="C20">
-        <v>18.01613555457103</v>
+        <v>12.61288745439388</v>
       </c>
       <c r="D20">
-        <v>6.054809283277676</v>
+        <v>5.475516207091395</v>
       </c>
       <c r="E20">
-        <v>5.15065321764061</v>
+        <v>10.62609656101029</v>
       </c>
       <c r="F20">
-        <v>76.44712930681111</v>
+        <v>61.64533809227889</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.788334229910245</v>
+        <v>10.19864704403269</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.50918529384512</v>
+        <v>19.42402465561613</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03259836879453</v>
+        <v>20.89472069910257</v>
       </c>
       <c r="C21">
-        <v>19.38818447808809</v>
+        <v>12.90924556362604</v>
       </c>
       <c r="D21">
-        <v>6.460713444972852</v>
+        <v>5.557325661306973</v>
       </c>
       <c r="E21">
-        <v>5.071355036274587</v>
+        <v>10.58622454617695</v>
       </c>
       <c r="F21">
-        <v>80.97867954647006</v>
+        <v>62.93088648632042</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.885751791074078</v>
+        <v>10.19973135717284</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.72375867916969</v>
+        <v>19.46353380604293</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.27394933516109</v>
+        <v>21.14467611788627</v>
       </c>
       <c r="C22">
-        <v>20.27591330162346</v>
+        <v>13.1048474128817</v>
       </c>
       <c r="D22">
-        <v>6.724310826294492</v>
+        <v>5.610813356394927</v>
       </c>
       <c r="E22">
-        <v>5.021063642410221</v>
+        <v>10.56130657257293</v>
       </c>
       <c r="F22">
-        <v>83.93351175068261</v>
+        <v>63.76498006604643</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.953561613560249</v>
+        <v>10.20120892047465</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.50567774136254</v>
+        <v>19.49481587292935</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.61268118736578</v>
+        <v>21.01096071218067</v>
       </c>
       <c r="C23">
-        <v>19.8026996628971</v>
+        <v>13.0003029076296</v>
       </c>
       <c r="D23">
-        <v>6.583713920924157</v>
+        <v>5.582267092636163</v>
       </c>
       <c r="E23">
-        <v>5.047768823073397</v>
+        <v>10.57450173896866</v>
       </c>
       <c r="F23">
-        <v>82.35651553287818</v>
+        <v>63.32043217726865</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.916961218251632</v>
+        <v>10.20034989225893</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.08925193133019</v>
+        <v>19.47762177717762</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07551670512438</v>
+        <v>20.51186176910112</v>
       </c>
       <c r="C24">
-        <v>17.99350967394472</v>
+        <v>12.6080820739912</v>
       </c>
       <c r="D24">
-        <v>6.048133508333988</v>
+        <v>5.474180090558031</v>
       </c>
       <c r="E24">
-        <v>5.151976083517225</v>
+        <v>10.62676758375858</v>
       </c>
       <c r="F24">
-        <v>76.37283627014108</v>
+        <v>61.62423883264124</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.786805720519655</v>
+        <v>10.19864228582705</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.4890946174183</v>
+        <v>19.42347135744638</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24213462340709</v>
+        <v>19.99252008330682</v>
       </c>
       <c r="C25">
-        <v>15.98326038645102</v>
+        <v>12.19602102589518</v>
       </c>
       <c r="D25">
-        <v>5.457850546317142</v>
+        <v>5.357981458067443</v>
       </c>
       <c r="E25">
-        <v>5.271341946283691</v>
+        <v>10.68807771864415</v>
       </c>
       <c r="F25">
-        <v>69.84495229655539</v>
+        <v>59.77543653153571</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.661611104571903</v>
+        <v>10.20009373353879</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.69598067585952</v>
+        <v>19.38861031543715</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.62974171293406</v>
+        <v>21.05204176671153</v>
       </c>
       <c r="C2">
-        <v>11.90515418833878</v>
+        <v>14.43493759990696</v>
       </c>
       <c r="D2">
-        <v>5.273071938883573</v>
+        <v>5.007908716678783</v>
       </c>
       <c r="E2">
-        <v>10.73751006893334</v>
+        <v>5.365591054139302</v>
       </c>
       <c r="F2">
-        <v>58.40536167705619</v>
+        <v>64.94302212652211</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.20398338144547</v>
+        <v>6.580173714488861</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.38323440442752</v>
+        <v>13.58184663465605</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39771230712965</v>
+        <v>19.49544587619371</v>
       </c>
       <c r="C3">
-        <v>11.71739948170023</v>
+        <v>13.33644647116438</v>
       </c>
       <c r="D3">
-        <v>5.216086276269363</v>
+        <v>4.691868461263597</v>
       </c>
       <c r="E3">
-        <v>10.77371095808514</v>
+        <v>5.433596029146057</v>
       </c>
       <c r="F3">
-        <v>57.47542236806399</v>
+        <v>61.5542290959222</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.20837293539281</v>
+        <v>6.530747194921645</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.39223646570822</v>
+        <v>13.0119787783478</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.26257364858362</v>
+        <v>18.55152594096377</v>
       </c>
       <c r="C4">
-        <v>11.60724474836054</v>
+        <v>12.6360157025525</v>
       </c>
       <c r="D4">
-        <v>5.18142274897335</v>
+        <v>4.491995796370634</v>
       </c>
       <c r="E4">
-        <v>10.79727827854841</v>
+        <v>5.477438508016936</v>
       </c>
       <c r="F4">
-        <v>56.90513245647951</v>
+        <v>59.44055900686581</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.21193096383938</v>
+        <v>6.502977862847284</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.40398803934888</v>
+        <v>12.66861053197244</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.2094193426264</v>
+        <v>18.19231400525165</v>
       </c>
       <c r="C5">
-        <v>11.56371910496066</v>
+        <v>12.34385634667212</v>
       </c>
       <c r="D5">
-        <v>5.167386590411171</v>
+        <v>4.409048878731325</v>
       </c>
       <c r="E5">
-        <v>10.80722020616806</v>
+        <v>5.495836316155788</v>
       </c>
       <c r="F5">
-        <v>56.67312497238476</v>
+        <v>58.57118036733221</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.21359756955098</v>
+        <v>6.492274625303401</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.41033945220041</v>
+        <v>12.53041772685761</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.20071085665105</v>
+        <v>18.13235454033683</v>
       </c>
       <c r="C6">
-        <v>11.55657613311798</v>
+        <v>12.29493206953789</v>
       </c>
       <c r="D6">
-        <v>5.16506151776362</v>
+        <v>4.395184515812884</v>
       </c>
       <c r="E6">
-        <v>10.80889150686918</v>
+        <v>5.498923561127201</v>
       </c>
       <c r="F6">
-        <v>56.63463015741048</v>
+        <v>58.42634616400976</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.21388738643805</v>
+        <v>6.490533400604673</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.41148837811568</v>
+        <v>12.50757874411647</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.2618489411463</v>
+        <v>18.54670256177549</v>
       </c>
       <c r="C7">
-        <v>11.60665213131108</v>
+        <v>12.63210301707749</v>
       </c>
       <c r="D7">
-        <v>5.181233080257132</v>
+        <v>4.490883239577916</v>
       </c>
       <c r="E7">
-        <v>10.79741098856525</v>
+        <v>5.477684465903874</v>
       </c>
       <c r="F7">
-        <v>56.90200165818125</v>
+        <v>59.42886634753476</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.21195256331952</v>
+        <v>6.502831078057817</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.40406737413605</v>
+        <v>12.66673966009656</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.54826225844387</v>
+        <v>20.52297031183639</v>
       </c>
       <c r="C8">
-        <v>11.83939763723883</v>
+        <v>14.06142893620385</v>
       </c>
       <c r="D8">
-        <v>5.253360266723776</v>
+        <v>4.90012167994812</v>
       </c>
       <c r="E8">
-        <v>10.74971474115319</v>
+        <v>5.388610193665181</v>
       </c>
       <c r="F8">
-        <v>58.08470302662855</v>
+        <v>63.7814799267526</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.20531765310042</v>
+        <v>6.562573929462874</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.38504520643841</v>
+        <v>13.38404391958574</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.16463181465972</v>
+        <v>24.21151034358625</v>
       </c>
       <c r="C9">
-        <v>12.33308491229806</v>
+        <v>16.66998270978316</v>
       </c>
       <c r="D9">
-        <v>5.397043490282215</v>
+        <v>5.658815001445157</v>
       </c>
       <c r="E9">
-        <v>10.66676207137632</v>
+        <v>5.230168558935412</v>
       </c>
       <c r="F9">
-        <v>60.40010644014476</v>
+        <v>72.05715654183803</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.19916581532182</v>
+        <v>6.701975575371658</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.39720184337372</v>
+        <v>15.31035086413643</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.64598627138486</v>
+        <v>26.7705952142977</v>
       </c>
       <c r="C10">
-        <v>12.71381497132894</v>
+        <v>18.48820280635103</v>
       </c>
       <c r="D10">
-        <v>5.503501399746922</v>
+        <v>6.194232368174908</v>
       </c>
       <c r="E10">
-        <v>10.61219537240913</v>
+        <v>5.123163147213499</v>
       </c>
       <c r="F10">
-        <v>62.08648415599771</v>
+        <v>78.00063067699445</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.19884609355905</v>
+        <v>6.820810033926302</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.43631965603128</v>
+        <v>16.9279009902443</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.87008020179767</v>
+        <v>27.90891965220222</v>
       </c>
       <c r="C11">
-        <v>12.88992159134436</v>
+        <v>19.29987640530974</v>
       </c>
       <c r="D11">
-        <v>5.552022358176979</v>
+        <v>6.434529799957921</v>
       </c>
       <c r="E11">
-        <v>10.58874159962451</v>
+        <v>5.076402693615003</v>
       </c>
       <c r="F11">
-        <v>62.84791786180845</v>
+        <v>80.68561539554338</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.19961630304813</v>
+        <v>6.879207358118212</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.46065497148264</v>
+        <v>17.6458073711162</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.95558421132884</v>
+        <v>28.33699583457209</v>
       </c>
       <c r="C12">
-        <v>12.95694422062285</v>
+        <v>19.60563220529716</v>
       </c>
       <c r="D12">
-        <v>5.570400427781046</v>
+        <v>6.52521827540223</v>
       </c>
       <c r="E12">
-        <v>10.58005594899956</v>
+        <v>5.058959889679328</v>
       </c>
       <c r="F12">
-        <v>63.13522761613369</v>
+        <v>81.70102912862176</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.20003986407435</v>
+        <v>6.902023493672695</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.47080745234948</v>
+        <v>17.91557419030784</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.93714219377313</v>
+        <v>28.24492129148128</v>
       </c>
       <c r="C13">
-        <v>12.94249611465856</v>
+        <v>19.53984254562421</v>
       </c>
       <c r="D13">
-        <v>5.566442338025587</v>
+        <v>6.505697538934426</v>
       </c>
       <c r="E13">
-        <v>10.58191786851923</v>
+        <v>5.062704947345447</v>
       </c>
       <c r="F13">
-        <v>63.07339929687659</v>
+        <v>81.48237443660935</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.19994277294549</v>
+        <v>6.897076983039724</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.46857931473991</v>
+        <v>17.85755917179109</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.87710227862295</v>
+        <v>27.9441927683276</v>
       </c>
       <c r="C14">
-        <v>12.8954293439448</v>
+        <v>19.32505935805513</v>
       </c>
       <c r="D14">
-        <v>5.553534300203652</v>
+        <v>6.44199587917159</v>
       </c>
       <c r="E14">
-        <v>10.58802310816461</v>
+        <v>5.074962435198649</v>
       </c>
       <c r="F14">
-        <v>62.87157678723252</v>
+        <v>80.76917142165732</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.19964850496848</v>
+        <v>6.881069876749948</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.46147146159649</v>
+        <v>17.66803997444263</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.84040729711613</v>
+        <v>27.75962378146026</v>
       </c>
       <c r="C15">
-        <v>12.86664074978993</v>
+        <v>19.19330952063063</v>
       </c>
       <c r="D15">
-        <v>5.545628036081151</v>
+        <v>6.402942274210623</v>
       </c>
       <c r="E15">
-        <v>10.59178820925142</v>
+        <v>5.082504569056925</v>
       </c>
       <c r="F15">
-        <v>62.74781467270226</v>
+        <v>80.33218839760026</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.1994854409809</v>
+        <v>6.871359107838601</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.45723963413024</v>
+        <v>17.55169808222768</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.6314364137041</v>
+        <v>26.69574246759164</v>
       </c>
       <c r="C16">
-        <v>12.70235736237117</v>
+        <v>18.43489687225254</v>
       </c>
       <c r="D16">
-        <v>5.500331529110782</v>
+        <v>6.178475716517219</v>
       </c>
       <c r="E16">
-        <v>10.61375558635296</v>
+        <v>5.126256692912509</v>
       </c>
       <c r="F16">
-        <v>62.03658987126207</v>
+        <v>77.82489044763301</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.19881420395944</v>
+        <v>6.817087317229525</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.43486064130136</v>
+        <v>16.88066315413271</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.50448612400438</v>
+        <v>26.03694605907815</v>
       </c>
       <c r="C17">
-        <v>12.60226018931331</v>
+        <v>17.96607811609035</v>
       </c>
       <c r="D17">
-        <v>5.4725608665301</v>
+        <v>6.040040663159795</v>
       </c>
       <c r="E17">
-        <v>10.62758170934053</v>
+        <v>5.153580563727878</v>
       </c>
       <c r="F17">
-        <v>61.59866427041031</v>
+        <v>76.28278468724717</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.19863711269799</v>
+        <v>6.784956025910438</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.42280503746831</v>
+        <v>16.46473404309667</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.4319554509717</v>
+        <v>25.65554199586632</v>
       </c>
       <c r="C18">
-        <v>12.54496581472105</v>
+        <v>17.69492900398557</v>
       </c>
       <c r="D18">
-        <v>5.456597189551628</v>
+        <v>5.960097289812795</v>
       </c>
       <c r="E18">
-        <v>10.63566303916464</v>
+        <v>5.169477703205168</v>
       </c>
       <c r="F18">
-        <v>61.34625577150141</v>
+        <v>75.39393810307568</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.1986214277126</v>
+        <v>6.766877915328089</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.41648685714537</v>
+        <v>16.22378139118411</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.40748439909514</v>
+        <v>25.52595908143099</v>
       </c>
       <c r="C19">
-        <v>12.52561740052087</v>
+        <v>17.60284876017009</v>
       </c>
       <c r="D19">
-        <v>5.451194032742896</v>
+        <v>5.932970641021246</v>
       </c>
       <c r="E19">
-        <v>10.63842141136868</v>
+        <v>5.17489163890998</v>
       </c>
       <c r="F19">
-        <v>61.26071083113153</v>
+        <v>75.09263437991002</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.198630910023</v>
+        <v>6.760824026292432</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.41445348995023</v>
+        <v>16.1418898859856</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.51795038483312</v>
+        <v>26.10732811567283</v>
       </c>
       <c r="C20">
-        <v>12.61288745439388</v>
+        <v>18.01613555457095</v>
       </c>
       <c r="D20">
-        <v>5.475516207091395</v>
+        <v>6.054809283277693</v>
       </c>
       <c r="E20">
-        <v>10.62609656101029</v>
+        <v>5.150653217640619</v>
       </c>
       <c r="F20">
-        <v>61.64533809227889</v>
+        <v>76.44712930681132</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.19864704403269</v>
+        <v>6.788334229910236</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.42402465561613</v>
+        <v>16.50918529384518</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.89472069910257</v>
+        <v>28.03259836879467</v>
       </c>
       <c r="C21">
-        <v>12.90924556362604</v>
+        <v>19.38818447808806</v>
       </c>
       <c r="D21">
-        <v>5.557325661306973</v>
+        <v>6.460713444972948</v>
       </c>
       <c r="E21">
-        <v>10.58622454617695</v>
+        <v>5.071355036274534</v>
       </c>
       <c r="F21">
-        <v>62.93088648632042</v>
+        <v>80.97867954647026</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.19973135717284</v>
+        <v>6.885751791074078</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.46353380604293</v>
+        <v>17.72375867916974</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14467611788627</v>
+        <v>29.27394933516101</v>
       </c>
       <c r="C22">
-        <v>13.1048474128817</v>
+        <v>20.27591330162353</v>
       </c>
       <c r="D22">
-        <v>5.610813356394927</v>
+        <v>6.724310826294494</v>
       </c>
       <c r="E22">
-        <v>10.56130657257293</v>
+        <v>5.02106364241021</v>
       </c>
       <c r="F22">
-        <v>63.76498006604643</v>
+        <v>83.93351175068257</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.20120892047465</v>
+        <v>6.953561613560222</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.49481587292935</v>
+        <v>18.50567774136253</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.01096071218067</v>
+        <v>28.6126811873659</v>
       </c>
       <c r="C23">
-        <v>13.0003029076296</v>
+        <v>19.80269966289716</v>
       </c>
       <c r="D23">
-        <v>5.582267092636163</v>
+        <v>6.583713920924211</v>
       </c>
       <c r="E23">
-        <v>10.57450173896866</v>
+        <v>5.047768823073493</v>
       </c>
       <c r="F23">
-        <v>63.32043217726865</v>
+        <v>82.35651553287819</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.20034989225893</v>
+        <v>6.916961218251664</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.47762177717762</v>
+        <v>18.08925193133019</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.51186176910112</v>
+        <v>26.07551670512417</v>
       </c>
       <c r="C24">
-        <v>12.6080820739912</v>
+        <v>17.99350967394483</v>
       </c>
       <c r="D24">
-        <v>5.474180090558031</v>
+        <v>6.04813350833392</v>
       </c>
       <c r="E24">
-        <v>10.62676758375858</v>
+        <v>5.151976083517129</v>
       </c>
       <c r="F24">
-        <v>61.62423883264124</v>
+        <v>76.37283627014071</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.19864228582705</v>
+        <v>6.786805720519613</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.42347135744638</v>
+        <v>16.48909461741823</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.99252008330682</v>
+        <v>23.24213462340723</v>
       </c>
       <c r="C25">
-        <v>12.19602102589518</v>
+        <v>15.98326038645116</v>
       </c>
       <c r="D25">
-        <v>5.357981458067443</v>
+        <v>5.457850546317304</v>
       </c>
       <c r="E25">
-        <v>10.68807771864415</v>
+        <v>5.271341946283541</v>
       </c>
       <c r="F25">
-        <v>59.77543653153571</v>
+        <v>69.84495229655586</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.20009373353879</v>
+        <v>6.661611104571917</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.38861031543715</v>
+        <v>14.69598067585965</v>
       </c>
       <c r="N25">
         <v>0</v>
